--- a/data_questions/50_questions.xlsx
+++ b/data_questions/50_questions.xlsx
@@ -4,32 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
-  <si>
-    <t>Какая кошка самая большая на планете?</t>
-  </si>
-  <si>
-    <t>Лев</t>
-  </si>
-  <si>
-    <t>Тигр</t>
-  </si>
-  <si>
-    <t>Гепард</t>
-  </si>
-  <si>
-    <t>Барс</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>id</t>
   </si>
@@ -52,148 +37,317 @@
     <t>correct_answer</t>
   </si>
   <si>
-    <t>Какое сухопутное животное может открыть рот максимально широко?</t>
-  </si>
-  <si>
-    <t>Аллигатор</t>
-  </si>
-  <si>
-    <t>Крокодил</t>
-  </si>
-  <si>
-    <t>Бабуин</t>
-  </si>
-  <si>
-    <t>Бегемот</t>
-  </si>
-  <si>
-    <t>Какое животное самое крупное на Земле?</t>
-  </si>
-  <si>
-    <t>Африканский слон</t>
-  </si>
-  <si>
-    <t>Синий кит</t>
-  </si>
-  <si>
-    <t>Кашалот</t>
-  </si>
-  <si>
-    <t>Гигантский кальмар</t>
-  </si>
-  <si>
-    <t>Какое млекопитающее умеет летать?</t>
-  </si>
-  <si>
-    <t>Летучая мышь</t>
-  </si>
-  <si>
-    <t>Белка-летяга</t>
-  </si>
-  <si>
-    <t>Белоголовый орлан</t>
-  </si>
-  <si>
-    <t>Колуго</t>
-  </si>
-  <si>
-    <t>Как называется животное, которое употребляет в пищу растения и мясо?</t>
-  </si>
-  <si>
-    <t>Плотоядное животное</t>
-  </si>
-  <si>
-    <t>Травоядное животное</t>
-  </si>
-  <si>
-    <t>Всеядное животное</t>
-  </si>
-  <si>
-    <t>Пескатариан</t>
-  </si>
-  <si>
-    <t>Почему каланы («морские выдры») держатся за руки?</t>
-  </si>
-  <si>
-    <t>Потому что они любят друг друга</t>
-  </si>
-  <si>
-    <t>Чтобы показать, что они в одной семье</t>
-  </si>
-  <si>
-    <t>Чтобы они не уплывали, когда спят</t>
-  </si>
-  <si>
-    <t>Потому что они играют</t>
-  </si>
-  <si>
-    <t>Как отличить насекомое от паука?</t>
-  </si>
-  <si>
-    <t>У насекомых три части тела, у пауков – две</t>
-  </si>
-  <si>
-    <t>У насекомых шесть ног, у пауков – восемь</t>
-  </si>
-  <si>
-    <t>У насекомых могут быть крылья, у пауков они отсутствуют</t>
-  </si>
-  <si>
-    <t>Все вышеперечисленные факты</t>
-  </si>
-  <si>
-    <t>Чем утконос отличается от других млекопитающих?</t>
-  </si>
-  <si>
-    <t>Крякает, как утка</t>
-  </si>
-  <si>
-    <t>Откладывает яйца</t>
-  </si>
-  <si>
-    <t>Строит гнезда</t>
-  </si>
-  <si>
-    <t>Ковыляет</t>
-  </si>
-  <si>
-    <t>Почему змеи высовывают язык?</t>
-  </si>
-  <si>
-    <t>Чтобы напугать хищников</t>
-  </si>
-  <si>
-    <t>Чтобы облизать добычу</t>
-  </si>
-  <si>
-    <t>Чтобы издать шипящий звук</t>
-  </si>
-  <si>
-    <t>Чтобы «понюхать» воздух</t>
-  </si>
-  <si>
-    <t>Как называется явление, обозначающее, что на Земле не осталось ни одного животного конкретного вида?</t>
-  </si>
-  <si>
-    <t>Эволюция</t>
-  </si>
-  <si>
-    <t>Сохранение</t>
-  </si>
-  <si>
-    <t>Вымирание</t>
-  </si>
-  <si>
-    <t>Находящиеся под угрозой исчезновения</t>
+    <t>Какой из представленных ниже коктейлей не содержит джин?</t>
+  </si>
+  <si>
+    <t>Кловер Клад</t>
+  </si>
+  <si>
+    <t>Драй Мартини</t>
+  </si>
+  <si>
+    <t>Яблочный мартини</t>
+  </si>
+  <si>
+    <t>Дайкири</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пояснение </t>
+  </si>
+  <si>
+    <t>На территории какого гастрономического пространства находится Народный бар LUDI?</t>
+  </si>
+  <si>
+    <t>Депо</t>
+  </si>
+  <si>
+    <t>StrEAT</t>
+  </si>
+  <si>
+    <t>Даниловский рынок</t>
+  </si>
+  <si>
+    <t>Усачёвский рынок</t>
+  </si>
+  <si>
+    <t>Классический Дайкири содержит ром, а вот в яблочном есть джин</t>
+  </si>
+  <si>
+    <t>Народный бар LUDI открылся в июле 2022 года на территории гастрономической улицы StrEAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В состав какого коктейля не входит ром? </t>
+  </si>
+  <si>
+    <t>Пина Колада</t>
+  </si>
+  <si>
+    <t>Кайпиринья</t>
+  </si>
+  <si>
+    <t>Том Коллинз</t>
+  </si>
+  <si>
+    <t>Мохито</t>
+  </si>
+  <si>
+    <t>Классический Том Коллинз делается на основе джина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кухня какой страны не представлена в меню народного бара LUDI? </t>
+  </si>
+  <si>
+    <t>Японская</t>
+  </si>
+  <si>
+    <t>Паназиатская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Грузинская </t>
+  </si>
+  <si>
+    <t>Азербайджанская</t>
+  </si>
+  <si>
+    <t>Всего в меню народного бара LUDI представлено более 10 национальных кохонь, но азербайджанская не входит в этот список</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В честь кого/чего назван коктейль Негрони? </t>
+  </si>
+  <si>
+    <t>Водопада в Америке</t>
+  </si>
+  <si>
+    <t>Героя книги Чака Поланика</t>
+  </si>
+  <si>
+    <t>Создателя</t>
+  </si>
+  <si>
+    <t>Бразильской деревни</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Есть две легенды о создании этого горького коктейля. По одной из них коктейль придумал граф  Камилло Негрони в 1919, по другой же корсиканец Паскаль Оливейра де Негрони в 1857 году. В любом случае коктейль был назван по фамилии своего создателя. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В народном баре LUDI выступило множество артистов. Кто в списке лишний? </t>
+  </si>
+  <si>
+    <t>JONY</t>
+  </si>
+  <si>
+    <t>Дима Билан</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Niletto</t>
+  </si>
+  <si>
+    <t>FEDUK</t>
+  </si>
+  <si>
+    <t>Народный бар LUDI реализовал программу лояльности для своих гостей. Какая из перечисленных опций лишняя?</t>
+  </si>
+  <si>
+    <t>100% кешбэк на бар</t>
+  </si>
+  <si>
+    <t>50% скидка на бар</t>
+  </si>
+  <si>
+    <t>Все варианты верны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">И 100% кешбэк, и 50%  скидка, и 3 коктейля для девушек - все перечисленные опции реализованы в народном баре LUDI. Подробнее на нашем сайте. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие события проходят в Народном баре LUDI каждую неделю? </t>
+  </si>
+  <si>
+    <t>Трансляции футбола</t>
+  </si>
+  <si>
+    <t>Концерты и вечеринки</t>
+  </si>
+  <si>
+    <t>Все варианты ответов верны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да, мы называем себя мультиформатными! Выбирай любое событие на свой вкус. Подробнее на сайте. </t>
+  </si>
+  <si>
+    <t>Сколько баров в Народном баре LUDI?</t>
+  </si>
+  <si>
+    <t>3 бара на первом этаже и один на втором</t>
+  </si>
+  <si>
+    <t>3 бесплатных коктейля для девушек</t>
+  </si>
+  <si>
+    <t>Июнь</t>
+  </si>
+  <si>
+    <t>Июль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дима Билан выступал 22 июля,  JONY дал концерт 5 августа, Niletto выступил на открытии 2 июля, а вот Feduk пока не выступал. </t>
+  </si>
+  <si>
+    <t>Август</t>
+  </si>
+  <si>
+    <t>Май</t>
+  </si>
+  <si>
+    <t>Открылся Народный бар LUDI 2 июля, на открытии выступил Niletto</t>
+  </si>
+  <si>
+    <t>StandUp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сколько стоит капучино в Народном баре  LUDI? </t>
+  </si>
+  <si>
+    <t>100% арабика вего-то за 150 руб.</t>
+  </si>
+  <si>
+    <t>В каком месяце открылся Народный бар LUDI?</t>
+  </si>
+  <si>
+    <t>Светодиодный экран</t>
+  </si>
+  <si>
+    <t>Плазменные панели</t>
+  </si>
+  <si>
+    <t>Проекторы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всё есть! </t>
+  </si>
+  <si>
+    <t>Что из перечисленного нет в техническом райдере Народного бара LUDI?</t>
+  </si>
+  <si>
+    <t>Родной</t>
+  </si>
+  <si>
+    <t>Людской</t>
+  </si>
+  <si>
+    <t>Народный</t>
+  </si>
+  <si>
+    <t>Международный</t>
+  </si>
+  <si>
+    <t>Это было легко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какого вина нет в меню народного бара LUDI? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оранжевого </t>
+  </si>
+  <si>
+    <t>Сливогого</t>
+  </si>
+  <si>
+    <t>Белого</t>
+  </si>
+  <si>
+    <t>Красного</t>
+  </si>
+  <si>
+    <t>Может и добавим если попросите</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какого десерта нет в меню Народного бара LUDI? </t>
+  </si>
+  <si>
+    <t>Брауни</t>
+  </si>
+  <si>
+    <t>Чизкейк с взрывной карамелью</t>
+  </si>
+  <si>
+    <t>Пирожное манго-маракуйя</t>
+  </si>
+  <si>
+    <t>У нас десерты на любой вкус</t>
+  </si>
+  <si>
+    <t>Какой персонаж мультфильма нарисован на одной из стен Народного бара LUDI?</t>
+  </si>
+  <si>
+    <t>Микки Маус</t>
+  </si>
+  <si>
+    <t>Спанч Боб</t>
+  </si>
+  <si>
+    <t>Гуфи</t>
+  </si>
+  <si>
+    <t>Шрэк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да, именно его нарисовали дизайнеры. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В какой день недели чаще всего мы устраиваем детские праздники? </t>
+  </si>
+  <si>
+    <t>Суббота</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Воскресенье </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пятница </t>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>Детские шоу, концерты и другие активности для детей мы организовываем чаще всего по воскресеньям. Приходите к нам со своими детишками!</t>
+  </si>
+  <si>
+    <t>Какая вариация коктейля Негрони представлена в меню Народном баре LUDI?</t>
+  </si>
+  <si>
+    <t>Negroni Tea</t>
+  </si>
+  <si>
+    <t>Negroni Coffee</t>
+  </si>
+  <si>
+    <t>Negroni Choco</t>
+  </si>
+  <si>
+    <t>Negroni Mescalitio</t>
+  </si>
+  <si>
+    <t>Все очень хвалят наш твист на эту классику!</t>
+  </si>
+  <si>
+    <t>Какое слово пропущено в названии нашего бара: ___________бар  LUDI?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -220,13 +374,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,472 +692,709 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="21.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="108.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="3.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>32</v>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1">
+        <v>125</v>
+      </c>
+      <c r="E12" s="1">
+        <v>150</v>
+      </c>
+      <c r="F12" s="1">
+        <v>250</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
+      <c r="H51" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
